--- a/report/excelReport/DemoAPITestCase_Flow.xlsx
+++ b/report/excelReport/DemoAPITestCase_Flow.xlsx
@@ -681,7 +681,7 @@
       </c>
       <c r="N2" s="7" t="inlineStr">
         <is>
-          <t>{'access_token': 'fd8a1748-7391-4be5-9c4b-f673d3cf827f', 'token_type': 'bearer', 'refresh_token': '4a83b2ea-8927-4d66-8585-54478ee221d5', 'expires_in': 16222, 'scope': 'server', 'tenant_id': 'TAX', 'license': 'made by ling', 'eName': 'edmspicMic', 'staffNo': '1002', 'user_id': '9e2f885f-fccc-4f6c-9df7-5f42b421b7db', 'cName': '自动化用户002', 'active': True, 'dept_id': None, 'username': 'autoMic'}</t>
+          <t>{'access_token': 'eeef7aa9-4555-4f1a-be0e-aecb559e1ded', 'token_type': 'bearer', 'refresh_token': '11aeea9c-abdb-4ee5-89c8-35ec6cba9f65', 'expires_in': 31552, 'scope': 'server', 'tenant_id': 'TAX', 'license': 'made by ling', 'eName': 'edmspicMic', 'staffNo': '1002', 'user_id': '9e2f885f-fccc-4f6c-9df7-5f42b421b7db', 'cName': '自动化用户002', 'active': True, 'dept_id': None, 'username': 'autoMic'}</t>
         </is>
       </c>
     </row>
